--- a/Results/results_output.xlsx
+++ b/Results/results_output.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="58">
   <si>
     <t>Field name</t>
   </si>
@@ -1291,43 +1291,43 @@
 2/2</t>
   </si>
   <si>
-    <t>The name of the fund is FRANKLIN US GOVERNMENT "A" INC.</t>
-  </si>
-  <si>
-    <t>The fund house of the fund is Franklin Templeton IM Ltd.</t>
-  </si>
-  <si>
-    <t>The currency of the FRANKLIN US GOVERNMENT "A" INC fund is USD (United States Dollar).</t>
-  </si>
-  <si>
-    <t>The fund's class is Class A.</t>
-  </si>
-  <si>
-    <t>The FRANKLIN US GOVERNMENT "A" INC fund is an Income fund. This is indicated by the fact that for the distribution share class, dividend income is distributed to shareholders.</t>
-  </si>
-  <si>
-    <t>The Horizon of the Fund is: More than Ten Years</t>
-  </si>
-  <si>
-    <t>{'Fund Name': 'FRANKLIN US GOVERNMENT "A" INC'}</t>
+    <t>FRANKLIN US GOVERNMENT "A" INC</t>
+  </si>
+  <si>
+    <t>The name of the Fund house of the fund is Franklin Templeton IM Ltd.</t>
+  </si>
+  <si>
+    <t>The currency of the FRANKLIN US GOVERNMENT "A" INC fund is USD.</t>
+  </si>
+  <si>
+    <t>Class of Fund: FRANKLIN US GOVERNMENT "A" INC</t>
+  </si>
+  <si>
+    <t>Based on the given information, the FRANKLIN US GOVERNMENT "A" INC fund is an Income fund.</t>
+  </si>
+  <si>
+    <t>The Horizon of the Fund is: Two to Five Years.</t>
+  </si>
+  <si>
+    <t>{'Fund Name': 'FRANKLIN US GOVERNMENT', 'Class': 'A', 'Acc or Inc': 'INC'}</t>
   </si>
   <si>
     <t>[{'Fund House': 'Franklin Templeton IM Ltd.'}]</t>
   </si>
   <si>
-    <t>[{'Fund Name': 'FRANKLIN US GOVERNMENT "A" INC', 'Currency': 'USD'}]</t>
-  </si>
-  <si>
-    <t>[{'Class': 'Class A'}]</t>
-  </si>
-  <si>
-    <t>[{'Fund Name': 'FRANKLIN US GOVERNMENT "A" INC', 'Acc or Inc': 'Income'}]</t>
-  </si>
-  <si>
-    <t>[{'Horizon': 'More than Ten Years'}]</t>
-  </si>
-  <si>
-    <t>FRANKLIN US GOVERNMENT "A" INC</t>
+    <t>[{'Fund Name': 'FRANKLIN US GOVERNMENT', 'Class': 'A', 'Acc or Inc': 'Inc', 'Currency': 'USD'}]</t>
+  </si>
+  <si>
+    <t>[{'Class': 'FRANKLIN US GOVERNMENT "A" INC'}]</t>
+  </si>
+  <si>
+    <t>[{'Fund Name': 'FRANKLIN US GOVERNMENT', 'Fund House': 'FRANKLIN', 'Class': 'A', 'Acc or Inc': 'Income'}]</t>
+  </si>
+  <si>
+    <t>[{'Horizon': 'Two to Five Years'}]</t>
+  </si>
+  <si>
+    <t>FRANKLIN US GOVERNMENT</t>
   </si>
   <si>
     <t>Franklin Templeton IM Ltd.</t>
@@ -1336,19 +1336,16 @@
     <t>USD</t>
   </si>
   <si>
-    <t>Class A</t>
-  </si>
-  <si>
     <t>Income</t>
   </si>
   <si>
-    <t>Franklin Templeton IM Ltd. FRANKLIN US GOVERNMENT "A" INC - Class A (USD) Income</t>
+    <t>Franklin Templeton IM Ltd. FRANKLIN US GOVERNMENT - FRANKLIN US GOVERNMENT "A" INC (USD) Income</t>
   </si>
   <si>
     <t>backend-staging+hedgefunds@kristal.ai</t>
   </si>
   <si>
-    <t>More than Ten Years</t>
+    <t>Two to Five Years</t>
   </si>
 </sst>
 </file>
@@ -1881,7 +1878,7 @@
         <v>48</v>
       </c>
       <c r="K5" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -1916,7 +1913,7 @@
         <v>49</v>
       </c>
       <c r="K6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -1930,7 +1927,7 @@
         <v>27</v>
       </c>
       <c r="K7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -1944,7 +1941,7 @@
         <v>27</v>
       </c>
       <c r="K8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -1979,7 +1976,7 @@
         <v>50</v>
       </c>
       <c r="K9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:11">
